--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway_HK.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway_HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{3B5B2FDD-1C1D-4007-8ACA-03FA5C3A99DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C61CA0E4-FD22-4344-9458-CA5686FE3BE6}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{3B5B2FDD-1C1D-4007-8ACA-03FA5C3A99DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F0C9096-B2D1-4BDE-96CA-961197C2A61F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9165" yWindow="690" windowWidth="10455" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10995" yWindow="1080" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,12 +449,12 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -462,40 +462,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="K14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -562,8 +564,8 @@
   </sheetPr>
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AJ6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,24 +1407,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1656,33 +1640,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D19A87E-1466-4452-8E04-C30623BC0338}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33CC892-B349-42B0-A31D-69858F8470EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A330DE4A-2A5F-4A2B-8D20-E1F83E2F84D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1700,4 +1676,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33CC892-B349-42B0-A31D-69858F8470EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D19A87E-1466-4452-8E04-C30623BC0338}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>